--- a/Master/MasterData/NPC.xlsx
+++ b/Master/MasterData/NPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t xml:space="preserve">$CLIENT_ONLY</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation</t>
   </si>
   <si>
     <t xml:space="preserve">ConditionId</t>
@@ -278,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:J28"/>
+  <dimension ref="A4:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,48 +325,54 @@
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>1</v>
@@ -371,10 +380,11 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="K7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -383,10 +393,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>1</v>
@@ -394,10 +404,11 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="K8" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -406,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>1</v>
@@ -417,10 +428,11 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="K9" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -434,6 +446,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5"/>
@@ -445,6 +458,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5"/>
@@ -456,6 +470,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5"/>
@@ -467,6 +482,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5"/>
@@ -478,6 +494,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5"/>
@@ -489,6 +506,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>
@@ -500,6 +518,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5"/>
@@ -511,6 +530,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5"/>
@@ -522,6 +542,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5"/>
@@ -533,6 +554,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5"/>
@@ -544,6 +566,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5"/>
@@ -555,6 +578,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5"/>
@@ -566,6 +590,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5"/>
@@ -577,6 +602,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5"/>
@@ -588,6 +614,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5"/>
@@ -599,6 +626,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5"/>
@@ -610,6 +638,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5"/>
@@ -621,6 +650,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5"/>
@@ -632,6 +662,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/NPC.xlsx
+++ b/Master/MasterData/NPC.xlsx
@@ -31,22 +31,22 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">AreaId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation</t>
+  </si>
+  <si>
     <t xml:space="preserve">ScriptName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation</t>
   </si>
   <si>
     <t xml:space="preserve">ConditionId</t>
@@ -284,7 +284,7 @@
   <dimension ref="A4:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -337,10 +337,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -352,7 +352,7 @@
         <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>11</v>
@@ -371,16 +371,24 @@
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>-1900</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
       <c r="J7" s="4" t="n">
         <v>0</v>
       </c>
@@ -395,16 +403,24 @@
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-3450</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2550</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
       <c r="J8" s="4" t="n">
         <v>0</v>
       </c>
@@ -419,16 +435,24 @@
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>-3450</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
       <c r="J9" s="4" t="n">
         <v>0</v>
       </c>

--- a/Master/MasterData/NPC.xlsx
+++ b/Master/MasterData/NPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t xml:space="preserve">$CLIENT_ONLY</t>
   </si>
@@ -49,7 +49,10 @@
     <t xml:space="preserve">ScriptName</t>
   </si>
   <si>
-    <t xml:space="preserve">ConditionId</t>
+    <t xml:space="preserve">AppearConditionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EraseConditionId</t>
   </si>
   <si>
     <t xml:space="preserve">ResourceId</t>
@@ -281,15 +284,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:K28"/>
+  <dimension ref="A4:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,48 +334,54 @@
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1</v>
@@ -387,12 +399,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -401,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1</v>
@@ -419,12 +434,15 @@
         <v>90</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -433,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
@@ -451,12 +469,15 @@
         <v>90</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -471,6 +492,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5"/>
@@ -483,6 +505,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5"/>
@@ -495,6 +518,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5"/>
@@ -507,6 +531,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5"/>
@@ -519,6 +544,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5"/>
@@ -531,6 +557,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>
@@ -543,6 +570,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5"/>
@@ -555,6 +583,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5"/>
@@ -567,6 +596,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5"/>
@@ -579,6 +609,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5"/>
@@ -591,6 +622,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5"/>
@@ -603,6 +635,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5"/>
@@ -615,6 +648,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5"/>
@@ -627,6 +661,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5"/>
@@ -639,6 +674,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5"/>
@@ -651,6 +687,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5"/>
@@ -663,6 +700,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5"/>
@@ -675,6 +713,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5"/>
@@ -687,6 +726,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/NPC.xlsx
+++ b/Master/MasterData/NPC.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">$CLIENT_ONLY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -284,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:L28"/>
+  <dimension ref="A5:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -298,90 +295,85 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1</v>
@@ -399,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>0</v>
@@ -416,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1</v>
@@ -434,7 +426,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>0</v>
@@ -451,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
@@ -469,7 +461,7 @@
         <v>90</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>0</v>

--- a/Master/MasterData/NPC.xlsx
+++ b/Master/MasterData/NPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -70,13 +70,19 @@
     <t xml:space="preserve">Test1</t>
   </si>
   <si>
+    <t xml:space="preserve">NPC0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPC0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test3</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test3</t>
   </si>
 </sst>
 </file>
@@ -284,7 +290,7 @@
   <dimension ref="A5:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -426,7 +432,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>0</v>
@@ -443,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
@@ -461,7 +467,7 @@
         <v>90</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>0</v>
